--- a/artfynd/A 2316-2026 artfynd.xlsx
+++ b/artfynd/A 2316-2026 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131292257</v>
+        <v>131292153</v>
       </c>
       <c r="B2" t="n">
         <v>57884</v>
@@ -713,7 +713,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>528915</v>
+        <v>528908</v>
       </c>
       <c r="R2" t="n">
-        <v>7000264</v>
+        <v>7000510</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -763,7 +763,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack, färska, på en granstam vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -790,9 +790,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -810,7 +815,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131292153</v>
+        <v>131292161</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -853,10 +858,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528908</v>
+        <v>528920</v>
       </c>
       <c r="R3" t="n">
-        <v>7000510</v>
+        <v>7000358</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -893,7 +898,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en granstam vid en hyggeskant.</t>
+          <t>Ringhack (savhack), färska, på en klen gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -945,7 +950,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131292161</v>
+        <v>131292257</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -978,7 +983,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -988,10 +993,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>528920</v>
+        <v>528915</v>
       </c>
       <c r="R4" t="n">
-        <v>7000358</v>
+        <v>7000264</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1033,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), färska, på en klen gran vid en hyggeskant.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1055,14 +1060,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131292163</v>
+        <v>131292265</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79002</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2730,31 +2730,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6446</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2762,10 +2757,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>528921</v>
+        <v>529126</v>
       </c>
       <c r="R18" t="n">
-        <v>7000354</v>
+        <v>7000447</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2800,43 +2795,19 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en klen gran vid en hyggeskant.</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2854,10 +2825,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131292191</v>
+        <v>131292263</v>
       </c>
       <c r="B19" t="n">
-        <v>79245</v>
+        <v>80350</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2865,26 +2836,30 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2892,10 +2867,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>528927</v>
+        <v>528966</v>
       </c>
       <c r="R19" t="n">
-        <v>7000340</v>
+        <v>7000477</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2932,7 +2907,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Långväxta bålar på en gran.</t>
+          <t>Rikligt med lunglav på sälg.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2952,17 +2927,22 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2980,10 +2960,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131292265</v>
+        <v>131292163</v>
       </c>
       <c r="B20" t="n">
-        <v>79002</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2991,26 +2971,31 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6446</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3018,10 +3003,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>529126</v>
+        <v>528921</v>
       </c>
       <c r="R20" t="n">
-        <v>7000447</v>
+        <v>7000354</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3056,19 +3041,43 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en klen gran vid en hyggeskant.</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3086,10 +3095,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131292263</v>
+        <v>131292191</v>
       </c>
       <c r="B21" t="n">
-        <v>80350</v>
+        <v>79245</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3097,30 +3106,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3128,10 +3133,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>528966</v>
+        <v>528927</v>
       </c>
       <c r="R21" t="n">
-        <v>7000477</v>
+        <v>7000340</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3168,7 +3173,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Rikligt med lunglav på sälg.</t>
+          <t>Långväxta bålar på en gran.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3188,22 +3193,17 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>

--- a/artfynd/A 2316-2026 artfynd.xlsx
+++ b/artfynd/A 2316-2026 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131292153</v>
+        <v>131292161</v>
       </c>
       <c r="B2" t="n">
         <v>57884</v>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>528908</v>
+        <v>528920</v>
       </c>
       <c r="R2" t="n">
-        <v>7000510</v>
+        <v>7000358</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -763,7 +763,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en granstam vid en hyggeskant.</t>
+          <t>Ringhack (savhack), färska, på en klen gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -815,7 +815,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131292161</v>
+        <v>131292257</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -848,7 +848,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -858,10 +858,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528920</v>
+        <v>528915</v>
       </c>
       <c r="R3" t="n">
-        <v>7000358</v>
+        <v>7000264</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), färska, på en klen gran vid en hyggeskant.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -925,14 +925,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -950,7 +945,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131292257</v>
+        <v>131292153</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -983,7 +978,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -993,10 +988,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>528915</v>
+        <v>528908</v>
       </c>
       <c r="R4" t="n">
-        <v>7000264</v>
+        <v>7000510</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1033,7 +1028,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack, färska, på en granstam vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1060,9 +1055,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131292184</v>
+        <v>131292162</v>
       </c>
       <c r="B7" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1352,26 +1352,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1379,10 +1384,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>528962</v>
+        <v>528917</v>
       </c>
       <c r="R7" t="n">
-        <v>7000560</v>
+        <v>7000356</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1419,7 +1424,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack (savhack), färska, på en klen gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1428,13 +1433,12 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1447,9 +1451,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1467,7 +1476,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131292162</v>
+        <v>131292254</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1500,7 +1509,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1510,10 +1519,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>528917</v>
+        <v>529159</v>
       </c>
       <c r="R8" t="n">
-        <v>7000356</v>
+        <v>7000453</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1550,7 +1559,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), färska, på en klen gran vid en hyggeskant.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1564,7 +1573,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -1577,14 +1586,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1602,7 +1606,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131292188</v>
+        <v>131292184</v>
       </c>
       <c r="B9" t="n">
         <v>79245</v>
@@ -1640,10 +1644,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>528907</v>
+        <v>528962</v>
       </c>
       <c r="R9" t="n">
-        <v>7000430</v>
+        <v>7000560</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1680,7 +1684,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>I god mängd på en stående död gran.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1708,14 +1712,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1733,10 +1732,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131292254</v>
+        <v>131292188</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1744,31 +1743,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1776,10 +1770,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>529159</v>
+        <v>528907</v>
       </c>
       <c r="R10" t="n">
-        <v>7000453</v>
+        <v>7000430</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1816,7 +1810,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>I god mängd på en stående död gran.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1825,6 +1819,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1843,9 +1838,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131292185</v>
+        <v>131292186</v>
       </c>
       <c r="B15" t="n">
         <v>79245</v>
@@ -2384,10 +2384,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>528965</v>
+        <v>528927</v>
       </c>
       <c r="R15" t="n">
-        <v>7000595</v>
+        <v>7000496</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2420,6 +2420,11 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>På flera gamla granar.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2467,7 +2472,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131292186</v>
+        <v>131292181</v>
       </c>
       <c r="B16" t="n">
         <v>79245</v>
@@ -2505,10 +2510,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>528927</v>
+        <v>528974</v>
       </c>
       <c r="R16" t="n">
-        <v>7000496</v>
+        <v>7000525</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2545,7 +2550,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>På flera gamla granar.</t>
+          <t>Särskilt rikligt med garnlav på en gammal gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2593,7 +2598,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131292181</v>
+        <v>131292185</v>
       </c>
       <c r="B17" t="n">
         <v>79245</v>
@@ -2631,10 +2636,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>528974</v>
+        <v>528965</v>
       </c>
       <c r="R17" t="n">
-        <v>7000525</v>
+        <v>7000595</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2667,11 +2672,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-22</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Särskilt rikligt med garnlav på en gammal gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2719,10 +2719,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131292265</v>
+        <v>131292191</v>
       </c>
       <c r="B18" t="n">
-        <v>79002</v>
+        <v>79245</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2730,21 +2730,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2757,10 +2757,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>529126</v>
+        <v>528927</v>
       </c>
       <c r="R18" t="n">
-        <v>7000447</v>
+        <v>7000340</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2795,6 +2795,11 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på en gran.</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
@@ -2808,6 +2813,21 @@
       <c r="AH18" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2825,10 +2845,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131292263</v>
+        <v>131292163</v>
       </c>
       <c r="B19" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2836,28 +2856,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2867,10 +2888,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>528966</v>
+        <v>528921</v>
       </c>
       <c r="R19" t="n">
-        <v>7000477</v>
+        <v>7000354</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2907,7 +2928,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Rikligt med lunglav på sälg.</t>
+          <t>Ringhack, färska, på en klen gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2916,7 +2937,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2927,22 +2947,22 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2960,10 +2980,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131292163</v>
+        <v>131292265</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79002</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2971,31 +2991,26 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6446</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3003,10 +3018,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>528921</v>
+        <v>529126</v>
       </c>
       <c r="R20" t="n">
-        <v>7000354</v>
+        <v>7000447</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3041,43 +3056,19 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en klen gran vid en hyggeskant.</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3095,10 +3086,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131292191</v>
+        <v>131292263</v>
       </c>
       <c r="B21" t="n">
-        <v>79245</v>
+        <v>80350</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3106,26 +3097,30 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3133,10 +3128,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>528927</v>
+        <v>528966</v>
       </c>
       <c r="R21" t="n">
-        <v>7000340</v>
+        <v>7000477</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3173,7 +3168,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Långväxta bålar på en gran.</t>
+          <t>Rikligt med lunglav på sälg.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3193,17 +3188,22 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3221,10 +3221,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131292260</v>
+        <v>131292256</v>
       </c>
       <c r="B22" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3232,50 +3232,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Trättflon, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>529105</v>
+        <v>528997</v>
       </c>
       <c r="R22" t="n">
-        <v>7000513</v>
+        <v>7000374</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3312,7 +3304,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>1st födosökande talltita i lämplig häckbiotop.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3329,9 +3321,19 @@
           <t>Barrskog</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>Bitvis flerskiktad skog men inslag av murknande björkhögstubbar för talltitans bohål.</t>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3349,10 +3351,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131292256</v>
+        <v>131292260</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3360,42 +3362,50 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Trättflon, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>528997</v>
+        <v>529105</v>
       </c>
       <c r="R23" t="n">
-        <v>7000374</v>
+        <v>7000513</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3432,7 +3442,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>1st födosökande talltita i lämplig häckbiotop.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3449,19 +3459,9 @@
           <t>Barrskog</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>Bitvis flerskiktad skog men inslag av murknande björkhögstubbar för talltitans bohål.</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3479,10 +3479,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131292165</v>
+        <v>131292274</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3490,31 +3490,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3522,10 +3517,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>528924</v>
+        <v>528983</v>
       </c>
       <c r="R24" t="n">
-        <v>7000345</v>
+        <v>7000463</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3560,17 +3555,13 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Ringhack (savhack), färska, på en klen gran vid en hyggeskant.</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3589,14 +3580,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3614,7 +3600,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131292274</v>
+        <v>131292271</v>
       </c>
       <c r="B25" t="n">
         <v>79245</v>
@@ -3652,10 +3638,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>528983</v>
+        <v>529122</v>
       </c>
       <c r="R25" t="n">
-        <v>7000463</v>
+        <v>7000459</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3735,10 +3721,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131292271</v>
+        <v>131292165</v>
       </c>
       <c r="B26" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3746,26 +3732,31 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3773,10 +3764,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>529122</v>
+        <v>528924</v>
       </c>
       <c r="R26" t="n">
-        <v>7000459</v>
+        <v>7000345</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3811,13 +3802,17 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Ringhack (savhack), färska, på en klen gran vid en hyggeskant.</t>
+        </is>
+      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3836,9 +3831,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -4112,10 +4112,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131292160</v>
+        <v>131292264</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>78257</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4123,31 +4123,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>228579</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4155,10 +4150,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>528916</v>
+        <v>528951</v>
       </c>
       <c r="R29" t="n">
-        <v>7000358</v>
+        <v>7000496</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4193,17 +4188,13 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Ringhack (savhack), äldre, på en gran vid en hyggeskant.</t>
-        </is>
-      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4224,12 +4215,12 @@
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4247,10 +4238,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131292166</v>
+        <v>131292249</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>83225</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4258,31 +4249,26 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4290,10 +4276,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>528920</v>
+        <v>528960</v>
       </c>
       <c r="R30" t="n">
-        <v>7000269</v>
+        <v>7000493</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4328,23 +4314,19 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en gran vid en hyggeskant.</t>
-        </is>
-      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrträd</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -4357,14 +4339,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4382,7 +4359,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131292157</v>
+        <v>131292166</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -4425,10 +4402,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>528904</v>
+        <v>528920</v>
       </c>
       <c r="R31" t="n">
-        <v>7000487</v>
+        <v>7000269</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4465,7 +4442,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på en gran vid en hyggeskant nära en bäck.</t>
+          <t>Ringhack, färska, på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4479,7 +4456,7 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
@@ -4517,10 +4494,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131292264</v>
+        <v>131292160</v>
       </c>
       <c r="B32" t="n">
-        <v>78257</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4528,26 +4505,31 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>228579</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4555,10 +4537,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>528951</v>
+        <v>528916</v>
       </c>
       <c r="R32" t="n">
-        <v>7000496</v>
+        <v>7000358</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4593,13 +4575,17 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Ringhack (savhack), äldre, på en gran vid en hyggeskant.</t>
+        </is>
+      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4620,12 +4606,12 @@
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4643,10 +4629,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131292249</v>
+        <v>131292157</v>
       </c>
       <c r="B33" t="n">
-        <v>83225</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4654,26 +4640,31 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4681,10 +4672,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>528960</v>
+        <v>528904</v>
       </c>
       <c r="R33" t="n">
-        <v>7000493</v>
+        <v>7000487</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4719,19 +4710,23 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Ringhack, färska och äldre, på en gran vid en hyggeskant nära en bäck.</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>Barrträd</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
@@ -4744,9 +4739,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131292187</v>
+        <v>131292192</v>
       </c>
       <c r="B35" t="n">
         <v>79245</v>
@@ -4937,10 +4937,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>528912</v>
+        <v>528927</v>
       </c>
       <c r="R35" t="n">
-        <v>7000471</v>
+        <v>7000269</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>På flera gamla granar.</t>
+          <t>Bland andra hänglavar på gran i tallskog.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Tallskog</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
@@ -5025,10 +5025,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131292159</v>
+        <v>131292187</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5036,31 +5036,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5068,10 +5063,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>528913</v>
+        <v>528912</v>
       </c>
       <c r="R36" t="n">
-        <v>7000365</v>
+        <v>7000471</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5108,7 +5103,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran vid en hyggeskant.</t>
+          <t>På flera gamla granar.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5117,6 +5112,7 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -5135,14 +5131,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5160,10 +5151,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131292192</v>
+        <v>131292159</v>
       </c>
       <c r="B37" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5171,26 +5162,31 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5198,10 +5194,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>528927</v>
+        <v>528913</v>
       </c>
       <c r="R37" t="n">
-        <v>7000269</v>
+        <v>7000365</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5238,7 +5234,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Bland andra hänglavar på gran i tallskog.</t>
+          <t>Ringhack, färska, på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5247,13 +5243,12 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>Tallskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -5266,9 +5261,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5289,7 +5289,7 @@
         <v>131292267</v>
       </c>
       <c r="B38" t="n">
-        <v>91806</v>
+        <v>91809</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
